--- a/biology/Botanique/Jacobaea_erucifolia/Jacobaea_erucifolia.xlsx
+++ b/biology/Botanique/Jacobaea_erucifolia/Jacobaea_erucifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacobaea erucifolia, appelé séneçon à feuilles de roquette, bien que ce ne soit pas un Senecio (séneçon), est une espèce de plante à fleurs de la famille des Asteraceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom scientifique accepté fut longtemps Senecio erucifolius L. mais des travaux, notamment ceux de Pelser &amp; Meijden en 2005, tendent à prouver que cette espèce et d'autres font bien partie du genre Jacobaea, distinct de Senecio. Elle est l'une des plantes hôtes de la chenille du papillon Goutte-de-sang (Tyria jacobaeae).
 </t>
@@ -542,7 +556,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jacobaea erucifolia subsp. erucifolia
 Jacobaea erucifolia subsp. tenuifolia</t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace de 30 à 120 cm de hauteur, rameuse et pubescente. Les feuilles sont sessiles pennatipartites embrassantes avec oreillettes entières vert foncé et face inférieure grisâtre. les fleurs sont jaunes tubulées, et ligulées en capitule formant un corymbe. La floraison intervient d'août à septembre.
 </t>
@@ -604,7 +622,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Prairies, bords de chemins, friches.
 </t>
